--- a/data/assets/20170627 Linkage Report - xl.xlsx
+++ b/data/assets/20170627 Linkage Report - xl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hedgi\Google Drive\Uni\Multimorb PhD\PhD Planning\Main Project application forms\Linkage documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hedgi\OneDrive - University of Glasgow\GitHub\thesis_rmd\data\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F522542280BF1B1DC4DF5ED6488CA75B0DA71FB0" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{CB313BFC-EF17-4F54-9050-C6F982021A2E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14987" windowHeight="5773" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="5775" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input data quality" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -135,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="155">
   <si>
     <t>Controlling for FULLDOB=0</t>
   </si>
@@ -588,6 +589,18 @@
   </si>
   <si>
     <t>SIMD 2016</t>
+  </si>
+  <si>
+    <t>Orkn</t>
+  </si>
+  <si>
+    <t>"Stirl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East </t>
+  </si>
+  <si>
+    <t>Highl</t>
   </si>
 </sst>
 </file>
@@ -1257,10 +1270,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="23" fillId="10" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1296,7 +1306,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2837,24 +2850,24 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.703125" customWidth="1"/>
-    <col min="4" max="4" width="58.1171875" customWidth="1"/>
-    <col min="5" max="5" width="16.87890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="58.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2862,7 +2875,7 @@
         <v>594380</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2870,10 +2883,10 @@
         <v>488185</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2885,10 +2898,10 @@
         <v>5.5415727312493689E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="40"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -2900,10 +2913,10 @@
         <v>2.0609710959318952E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E10" s="40"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2915,7 +2928,7 @@
         <v>6.0870150408829371E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2927,7 +2940,7 @@
         <v>5.387956571343451E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2939,7 +2952,7 @@
         <v>1.0156374309789729E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2951,7 +2964,7 @@
         <v>9.8053023044813309E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>63</v>
       </c>
@@ -2964,10 +2977,10 @@
         <v>8.4873374401095145E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E16" s="40"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2979,7 +2992,7 @@
         <v>0.3161476195151347</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>64</v>
       </c>
@@ -2992,7 +3005,7 @@
         <v>3.2854209445585217E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>59</v>
       </c>
@@ -3001,7 +3014,7 @@
       </c>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>60</v>
       </c>
@@ -3010,15 +3023,15 @@
       </c>
       <c r="E20" s="40"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" s="40"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>65</v>
       </c>
@@ -3030,7 +3043,7 @@
         <v>0.70448534607490154</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>113</v>
       </c>
@@ -3042,79 +3055,79 @@
         <v>0.2955146539250984</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E25" s="40"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E26" s="40"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E27" s="40"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E28" s="40"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E29" s="40"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E30" s="40"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" s="40"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E32" s="40"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="40"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="40"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="40"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" s="40"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" s="40"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" s="40"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="40"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="40"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" s="40"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" s="40"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43" s="40"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44" s="40"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45" s="40"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46" s="40"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E47" s="40"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="40"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="40"/>
     </row>
   </sheetData>
@@ -3137,24 +3150,24 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.29296875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="38.41015625" style="22" customWidth="1"/>
-    <col min="3" max="16384" width="9.1171875" style="22"/>
+    <col min="1" max="1" width="15.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="22" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>38</v>
       </c>
@@ -3171,7 +3184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>100</v>
       </c>
@@ -3189,7 +3202,7 @@
         <v>5.9556856609296899E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>110</v>
       </c>
@@ -3207,7 +3220,7 @@
         <v>1.6213221357128299E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>120</v>
       </c>
@@ -3225,7 +3238,7 @@
         <v>2.86801685469621E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>130</v>
       </c>
@@ -3243,7 +3256,7 @@
         <v>3.21437942797166E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="32" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>150</v>
       </c>
@@ -3261,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>170</v>
       </c>
@@ -3279,7 +3292,7 @@
         <v>3.2567533451148697E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>180</v>
       </c>
@@ -3297,7 +3310,7 @@
         <v>8.88274772996447E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="26" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>190</v>
       </c>
@@ -3315,7 +3328,7 @@
         <v>2.6442118517352599E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>200</v>
       </c>
@@ -3333,7 +3346,7 @@
         <v>2.36662384204476E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="32" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>210</v>
       </c>
@@ -3351,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>220</v>
       </c>
@@ -3369,7 +3382,7 @@
         <v>3.0431775516253302E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>230</v>
       </c>
@@ -3387,7 +3400,7 @@
         <v>3.3255729940191901E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>235</v>
       </c>
@@ -3405,7 +3418,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>240</v>
       </c>
@@ -3423,7 +3436,7 @@
         <v>3.2826576576576602E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="26" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>250</v>
       </c>
@@ -3441,7 +3454,7 @@
         <v>1.73949256791389E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>260</v>
       </c>
@@ -3459,7 +3472,7 @@
         <v>3.1892399859039099E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="36" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>270</v>
       </c>
@@ -3477,7 +3490,7 @@
         <v>0.15760353021045501</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>280</v>
       </c>
@@ -3495,7 +3508,7 @@
         <v>3.4168808911739498E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="26" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>290</v>
       </c>
@@ -3513,7 +3526,7 @@
         <v>1.5530787502283899E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="26" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>300</v>
       </c>
@@ -3531,7 +3544,7 @@
         <v>2.07052070520705E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>310</v>
       </c>
@@ -3549,7 +3562,7 @@
         <v>3.2260484657513702E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="26" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>320</v>
       </c>
@@ -3567,7 +3580,7 @@
         <v>1.9186940160067799E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>330</v>
       </c>
@@ -3585,7 +3598,7 @@
         <v>3.3441208198489801E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="26" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>340</v>
       </c>
@@ -3603,7 +3616,7 @@
         <v>1.6707616707616699E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="32" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>350</v>
       </c>
@@ -3621,7 +3634,7 @@
         <v>7.2258686096224496E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="26" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>355</v>
       </c>
@@ -3639,7 +3652,7 @@
         <v>2.0612927445225599E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="26" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>360</v>
       </c>
@@ -3657,7 +3670,7 @@
         <v>2.5974025974026E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>370</v>
       </c>
@@ -3675,7 +3688,7 @@
         <v>3.41627172195893E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>380</v>
       </c>
@@ -3693,7 +3706,7 @@
         <v>3.4752013826733701E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="29" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>390</v>
       </c>
@@ -3711,7 +3724,7 @@
         <v>3.3585670114084698E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="32" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
         <v>395</v>
       </c>
@@ -3729,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="32" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
         <v>400</v>
       </c>
@@ -3747,7 +3760,7 @@
         <v>1.8801410105757899E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>43</v>
       </c>
@@ -3761,22 +3774,22 @@
         <v>3.3143780073353703E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="32" t="s">
         <v>47</v>
       </c>
@@ -3794,37 +3807,37 @@
   </sheetPr>
   <dimension ref="A2:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="65.1171875" customWidth="1"/>
-    <col min="5" max="5" width="11.5859375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5859375" customWidth="1"/>
-    <col min="9" max="9" width="3.5859375" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="3.41015625" customWidth="1"/>
-    <col min="15" max="15" width="10.29296875" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
@@ -3835,7 +3848,7 @@
         <v>0.70448534607490154</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>113</v>
       </c>
@@ -3846,7 +3859,7 @@
         <v>0.2955146539250984</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>123</v>
       </c>
@@ -3858,12 +3871,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>121</v>
       </c>
@@ -3876,7 +3889,7 @@
         <v>0.77259850261683582</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>120</v>
       </c>
@@ -3889,7 +3902,7 @@
         <v>0.22740149738316418</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>122</v>
       </c>
@@ -3902,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="73" t="s">
         <v>124</v>
       </c>
@@ -3921,7 +3934,7 @@
       </c>
       <c r="N15" s="74"/>
     </row>
-    <row r="16" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="70" t="s">
         <v>133</v>
       </c>
@@ -3949,10 +3962,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N17" s="78"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>130</v>
       </c>
@@ -3984,7 +3997,7 @@
         <v>0.99930280151381701</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -4016,7 +4029,7 @@
         <v>0.99829243651248767</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -4048,7 +4061,7 @@
         <v>0.96733995270036166</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="81" t="s">
         <v>134</v>
       </c>
@@ -4091,16 +4104,16 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5859375" customWidth="1"/>
-    <col min="8" max="8" width="11.5859375" customWidth="1"/>
-    <col min="9" max="9" width="10.5859375" customWidth="1"/>
-    <col min="10" max="10" width="9.1171875" style="49"/>
-    <col min="19" max="19" width="9.1171875" style="49"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="49"/>
+    <col min="19" max="19" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>66</v>
       </c>
@@ -4111,95 +4124,95 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="89" t="s">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="J3" s="89" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="J3" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="S3" s="89" t="s">
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="S3" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
       <c r="X3" s="20"/>
     </row>
-    <row r="4" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="89" t="s">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="J4" s="89" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="J4" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="S4" s="89" t="s">
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="S4" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
       <c r="X4" s="20"/>
     </row>
-    <row r="5" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="91"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="95" t="s">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97" t="s">
+      <c r="D5" s="95"/>
+      <c r="E5" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="95" t="s">
+      <c r="J5" s="90"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="97" t="s">
+      <c r="M5" s="95"/>
+      <c r="N5" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="91"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="95" t="s">
+      <c r="S5" s="90"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="V5" s="96"/>
-      <c r="W5" s="97" t="s">
+      <c r="V5" s="95"/>
+      <c r="W5" s="96" t="s">
         <v>2</v>
       </c>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="92"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="98"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
@@ -4210,15 +4223,15 @@
       <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
       <c r="L6" s="1">
         <v>0</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
-      <c r="N6" s="98"/>
+      <c r="N6" s="97"/>
       <c r="O6" s="3" t="s">
         <v>32</v>
       </c>
@@ -4228,15 +4241,15 @@
       <c r="R6" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="93"/>
-      <c r="T6" s="94"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="93"/>
       <c r="U6" s="1">
         <v>0</v>
       </c>
       <c r="V6" s="1">
         <v>1</v>
       </c>
-      <c r="W6" s="98"/>
+      <c r="W6" s="97"/>
       <c r="X6" s="3" t="s">
         <v>32</v>
       </c>
@@ -4247,18 +4260,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="99">
+      <c r="C7" s="86">
         <v>0</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="98">
         <v>0</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="98">
         <v>0</v>
       </c>
       <c r="H7" s="46"/>
@@ -4266,13 +4279,13 @@
         <v>3</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="99">
+      <c r="L7" s="86">
         <v>0</v>
       </c>
-      <c r="M7" s="86">
+      <c r="M7" s="98">
         <v>4444</v>
       </c>
-      <c r="N7" s="86">
+      <c r="N7" s="98">
         <v>4444</v>
       </c>
       <c r="Q7" s="46"/>
@@ -4280,30 +4293,30 @@
         <v>3</v>
       </c>
       <c r="T7" s="2"/>
-      <c r="U7" s="99">
+      <c r="U7" s="86">
         <f>C7+L7</f>
         <v>0</v>
       </c>
-      <c r="V7" s="99">
+      <c r="V7" s="86">
         <f>D7+M7</f>
         <v>4444</v>
       </c>
-      <c r="W7" s="99">
+      <c r="W7" s="86">
         <f>E7+N7</f>
         <v>4444</v>
       </c>
       <c r="Z7" s="46"/>
     </row>
-    <row r="8" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
       <c r="F8" s="12">
         <f>E7/E$21</f>
         <v>0</v>
@@ -4322,9 +4335,9 @@
       <c r="K8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="88"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
       <c r="O8" s="12">
         <f>N7/N$21</f>
         <v>1.1782454112325709E-2</v>
@@ -4342,9 +4355,9 @@
       <c r="T8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
       <c r="X8" s="12">
         <f>W7/W$21</f>
         <v>9.1031064043344215E-3</v>
@@ -4357,7 +4370,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -4441,7 +4454,7 @@
         <v>264777</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -4525,7 +4538,7 @@
         <v>103470.42600000001</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
@@ -4609,7 +4622,7 @@
         <v>47145.659999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
@@ -4693,7 +4706,7 @@
         <v>7778.5</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
@@ -4777,7 +4790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
@@ -4861,7 +4874,7 @@
         <v>8352.4</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
@@ -4945,7 +4958,7 @@
         <v>899.38800000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
@@ -5029,7 +5042,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
@@ -5113,7 +5126,7 @@
         <v>1870.1999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -5197,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
@@ -5281,7 +5294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:27" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -5365,54 +5378,54 @@
         <v>10529.4</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="88">
+      <c r="C21" s="87">
         <v>5740</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D21" s="99">
         <v>105274</v>
       </c>
-      <c r="E21" s="87">
+      <c r="E21" s="99">
         <v>111014</v>
       </c>
       <c r="J21" s="50"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="88">
+      <c r="L21" s="87">
         <v>17748</v>
       </c>
-      <c r="M21" s="87">
+      <c r="M21" s="99">
         <v>359423</v>
       </c>
-      <c r="N21" s="87">
+      <c r="N21" s="99">
         <v>377171</v>
       </c>
       <c r="S21" s="50"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="88">
+      <c r="U21" s="87">
         <f>C21+L21</f>
         <v>23488</v>
       </c>
-      <c r="V21" s="88">
+      <c r="V21" s="87">
         <f>D21+M21</f>
         <v>464697</v>
       </c>
-      <c r="W21" s="88">
+      <c r="W21" s="87">
         <f>E21+N21</f>
         <v>488185</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
       <c r="F22" s="12">
         <f t="shared" ref="F22" si="9">E21/E$21</f>
         <v>1</v>
@@ -5428,9 +5441,9 @@
       <c r="K22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="88"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
       <c r="O22" s="12">
         <f t="shared" ref="O22" si="10">N21/N$21</f>
         <v>1</v>
@@ -5445,9 +5458,9 @@
       <c r="T22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
       <c r="X22" s="12">
         <f t="shared" ref="X22" si="11">W21/W$21</f>
         <v>1</v>
@@ -5457,7 +5470,7 @@
         <v>449519.97399999999</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="20.7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:27" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B23" s="55" t="s">
         <v>67</v>
       </c>
@@ -5470,7 +5483,7 @@
         <v>0.22740149738316418</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>30</v>
       </c>
@@ -5490,7 +5503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
         <v>20</v>
       </c>
@@ -5533,7 +5546,7 @@
         <v>0.99930280151381701</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>21</v>
       </c>
@@ -5578,7 +5591,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="J27" s="53"/>
@@ -5587,7 +5600,7 @@
       <c r="S27" s="53"/>
       <c r="Y27" s="14"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
         <v>22</v>
       </c>
@@ -5630,12 +5643,12 @@
         <v>0.99829243651248767</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
@@ -5679,27 +5692,27 @@
         <v>0.96733995270036166</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
         <v>34</v>
       </c>
@@ -5716,12 +5729,12 @@
         <v>0.98566750285578564</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>35</v>
       </c>
@@ -5749,6 +5762,7 @@
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="S4:W4"/>
     <mergeCell ref="S5:T6"/>
@@ -5760,7 +5774,6 @@
     <mergeCell ref="U21:U22"/>
     <mergeCell ref="V21:V22"/>
     <mergeCell ref="W21:W22"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="93" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -5775,49 +5788,49 @@
   </sheetPr>
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.29296875" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1" s="89" t="s">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="89" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="89" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="89" t="s">
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="89" t="s">
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
       <c r="X1" s="104" t="s">
         <v>112</v>
       </c>
@@ -5825,49 +5838,49 @@
       <c r="Z1" s="105"/>
       <c r="AA1" s="105"/>
     </row>
-    <row r="2" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="16"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="56"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
       <c r="J2" s="56"/>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
       <c r="N2" s="56"/>
-      <c r="O2" s="97" t="s">
+      <c r="O2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="91"/>
       <c r="R2" s="56"/>
-      <c r="S2" s="97" t="s">
+      <c r="S2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="91"/>
       <c r="V2" s="56"/>
-      <c r="W2" s="97" t="s">
+      <c r="W2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="89" t="s">
+      <c r="X2" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100" t="s">
         <v>70</v>
       </c>
@@ -5875,46 +5888,46 @@
       <c r="C3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="94"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="98"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="94"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="93"/>
       <c r="R3" s="1">
         <v>1</v>
       </c>
-      <c r="S3" s="98"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="94"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="93"/>
       <c r="V3" s="1">
         <v>1</v>
       </c>
-      <c r="W3" s="98"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="92"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="91"/>
       <c r="Z3" s="1">
         <v>1</v>
       </c>
-      <c r="AA3" s="97" t="s">
+      <c r="AA3" s="96" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="101"/>
       <c r="B4" s="66"/>
       <c r="C4" s="103"/>
@@ -5925,7 +5938,7 @@
       <c r="F4" s="106">
         <v>99.3</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="7" t="s">
         <v>70</v>
       </c>
@@ -5933,7 +5946,7 @@
       <c r="J4" s="106">
         <v>82.01</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="98"/>
       <c r="L4" s="7" t="s">
         <v>70</v>
       </c>
@@ -5941,7 +5954,7 @@
       <c r="N4" s="106">
         <v>82.48</v>
       </c>
-      <c r="O4" s="86"/>
+      <c r="O4" s="98"/>
       <c r="P4" s="7" t="s">
         <v>70</v>
       </c>
@@ -5949,7 +5962,7 @@
       <c r="R4" s="106">
         <v>81.33</v>
       </c>
-      <c r="S4" s="86"/>
+      <c r="S4" s="98"/>
       <c r="T4" s="7" t="s">
         <v>70</v>
       </c>
@@ -5957,15 +5970,15 @@
       <c r="V4" s="108">
         <v>17.12</v>
       </c>
-      <c r="W4" s="86"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="94"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="93"/>
       <c r="Z4" s="106">
         <v>0.35</v>
       </c>
-      <c r="AA4" s="98"/>
-    </row>
-    <row r="5" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA4" s="97"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62">
         <v>100</v>
       </c>
@@ -5982,7 +5995,7 @@
         <v>71</v>
       </c>
       <c r="F5" s="107"/>
-      <c r="G5" s="87"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="8">
         <v>100</v>
       </c>
@@ -5990,7 +6003,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="107"/>
-      <c r="K5" s="87"/>
+      <c r="K5" s="99"/>
       <c r="L5" s="8">
         <v>100</v>
       </c>
@@ -5998,7 +6011,7 @@
         <v>71</v>
       </c>
       <c r="N5" s="107"/>
-      <c r="O5" s="87"/>
+      <c r="O5" s="99"/>
       <c r="P5" s="8">
         <v>100</v>
       </c>
@@ -6006,7 +6019,7 @@
         <v>71</v>
       </c>
       <c r="R5" s="107"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="8">
         <v>100</v>
       </c>
@@ -6014,7 +6027,7 @@
         <v>71</v>
       </c>
       <c r="V5" s="109"/>
-      <c r="W5" s="87"/>
+      <c r="W5" s="99"/>
       <c r="X5" s="8">
         <v>100</v>
       </c>
@@ -6022,9 +6035,9 @@
         <v>71</v>
       </c>
       <c r="Z5" s="107"/>
-      <c r="AA5" s="86"/>
-    </row>
-    <row r="6" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA5" s="98"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62">
         <v>110</v>
       </c>
@@ -6093,9 +6106,9 @@
       <c r="Z6" s="57">
         <v>0.64</v>
       </c>
-      <c r="AA6" s="87"/>
-    </row>
-    <row r="7" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA6" s="99"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62">
         <v>120</v>
       </c>
@@ -6166,7 +6179,7 @@
       </c>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62">
         <v>130</v>
       </c>
@@ -6237,7 +6250,7 @@
       </c>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62">
         <v>150</v>
       </c>
@@ -6308,7 +6321,7 @@
       </c>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="62">
         <v>170</v>
       </c>
@@ -6379,7 +6392,7 @@
       </c>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="62">
         <v>180</v>
       </c>
@@ -6450,7 +6463,7 @@
       </c>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="62">
         <v>190</v>
       </c>
@@ -6521,7 +6534,7 @@
       </c>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="62">
         <v>200</v>
       </c>
@@ -6592,9 +6605,9 @@
       </c>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="62">
-        <v>210</v>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="62" t="s">
+        <v>153</v>
       </c>
       <c r="B14" s="59" t="s">
         <v>84</v>
@@ -6663,7 +6676,7 @@
       </c>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="62">
         <v>220</v>
       </c>
@@ -6734,7 +6747,7 @@
       </c>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="62">
         <v>230</v>
       </c>
@@ -6805,7 +6818,7 @@
       </c>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
         <v>235</v>
       </c>
@@ -6876,7 +6889,7 @@
       </c>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="62">
         <v>240</v>
       </c>
@@ -6947,7 +6960,7 @@
       </c>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62">
         <v>250</v>
       </c>
@@ -7018,7 +7031,7 @@
       </c>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="62">
         <v>260</v>
       </c>
@@ -7089,7 +7102,7 @@
       </c>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="62">
         <v>270</v>
       </c>
@@ -7113,7 +7126,7 @@
         <v>270</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="J21" s="57">
         <v>79.239999999999995</v>
@@ -7160,7 +7173,7 @@
       </c>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="62">
         <v>280</v>
       </c>
@@ -7231,7 +7244,7 @@
       </c>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="62">
         <v>290</v>
       </c>
@@ -7302,7 +7315,7 @@
       </c>
       <c r="AA23" s="4"/>
     </row>
-    <row r="24" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="62">
         <v>300</v>
       </c>
@@ -7373,7 +7386,7 @@
       </c>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62">
         <v>310</v>
       </c>
@@ -7444,7 +7457,7 @@
       </c>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="62">
         <v>320</v>
       </c>
@@ -7515,9 +7528,9 @@
       </c>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="62">
-        <v>330</v>
+    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="62" t="s">
+        <v>151</v>
       </c>
       <c r="B27" s="59" t="s">
         <v>97</v>
@@ -7586,7 +7599,7 @@
       </c>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="62">
         <v>340</v>
       </c>
@@ -7657,7 +7670,7 @@
       </c>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="62">
         <v>350</v>
       </c>
@@ -7728,7 +7741,7 @@
       </c>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="62">
         <v>355</v>
       </c>
@@ -7799,7 +7812,7 @@
       </c>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="62">
         <v>360</v>
       </c>
@@ -7870,7 +7883,7 @@
       </c>
       <c r="AA31" s="4"/>
     </row>
-    <row r="32" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62">
         <v>370</v>
       </c>
@@ -7941,7 +7954,7 @@
       </c>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="62">
         <v>380</v>
       </c>
@@ -8012,9 +8025,9 @@
       </c>
       <c r="AA33" s="4"/>
     </row>
-    <row r="34" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="62">
-        <v>390</v>
+    <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="62" t="s">
+        <v>152</v>
       </c>
       <c r="B34" s="59" t="s">
         <v>104</v>
@@ -8083,7 +8096,7 @@
       </c>
       <c r="AA34" s="4"/>
     </row>
-    <row r="35" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="62">
         <v>395</v>
       </c>
@@ -8154,7 +8167,7 @@
       </c>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="63">
         <v>400</v>
       </c>
@@ -8225,57 +8238,57 @@
       </c>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" s="7"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="87">
+      <c r="F37" s="99">
         <v>464697</v>
       </c>
-      <c r="G37" s="87">
+      <c r="G37" s="99">
         <v>488185</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="87">
+      <c r="J37" s="99">
         <v>442085</v>
       </c>
-      <c r="K37" s="87">
+      <c r="K37" s="99">
         <v>488185</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="87">
+      <c r="N37" s="99">
         <v>428982</v>
       </c>
-      <c r="O37" s="87">
+      <c r="O37" s="99">
         <v>488185</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="87">
+      <c r="R37" s="99">
         <v>420130</v>
       </c>
-      <c r="S37" s="87">
+      <c r="S37" s="99">
         <v>488185</v>
       </c>
       <c r="T37" s="7"/>
       <c r="U37" s="2"/>
-      <c r="V37" s="87">
+      <c r="V37" s="99">
         <v>42721</v>
       </c>
-      <c r="W37" s="87">
+      <c r="W37" s="99">
         <v>488185</v>
       </c>
       <c r="X37" s="7"/>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="87">
+      <c r="Z37" s="99">
         <v>6050</v>
       </c>
-      <c r="AA37" s="87">
+      <c r="AA37" s="99">
         <v>442085</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="25.35" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>2</v>
       </c>
@@ -8290,50 +8303,50 @@
       <c r="E38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
       <c r="H38" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
       <c r="L38" s="9" t="s">
         <v>2</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="99"/>
       <c r="P38" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
+      <c r="R38" s="99"/>
+      <c r="S38" s="99"/>
       <c r="T38" s="9" t="s">
         <v>2</v>
       </c>
       <c r="U38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V38" s="87"/>
-      <c r="W38" s="87"/>
+      <c r="V38" s="99"/>
+      <c r="W38" s="99"/>
       <c r="X38" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Y38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Z38" s="87"/>
-      <c r="AA38" s="87"/>
-    </row>
-    <row r="39" spans="1:27" ht="38" x14ac:dyDescent="0.5">
+      <c r="Z38" s="99"/>
+      <c r="AA38" s="99"/>
+    </row>
+    <row r="39" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="E39" s="10" t="s">
         <v>72</v>
       </c>
@@ -8429,46 +8442,46 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="11.29296875" customWidth="1"/>
-    <col min="3" max="3" width="10.87890625" customWidth="1"/>
-    <col min="5" max="5" width="10.87890625" customWidth="1"/>
-    <col min="9" max="9" width="11.1171875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1" s="89" t="s">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="89" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="89" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="89" t="s">
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="89" t="s">
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
       <c r="X1" s="104" t="s">
         <v>112</v>
       </c>
@@ -8476,49 +8489,49 @@
       <c r="Z1" s="105"/>
       <c r="AA1" s="105"/>
     </row>
-    <row r="2" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="16"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="56"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
       <c r="J2" s="56"/>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
       <c r="N2" s="56"/>
-      <c r="O2" s="97" t="s">
+      <c r="O2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="91"/>
       <c r="R2" s="56"/>
-      <c r="S2" s="97" t="s">
+      <c r="S2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="91"/>
       <c r="V2" s="56"/>
-      <c r="W2" s="97" t="s">
+      <c r="W2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="89" t="s">
+      <c r="X2" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100" t="s">
         <v>135</v>
       </c>
@@ -8526,46 +8539,46 @@
       <c r="C3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="94"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="98"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="94"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="93"/>
       <c r="R3" s="1">
         <v>1</v>
       </c>
-      <c r="S3" s="98"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="94"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="93"/>
       <c r="V3" s="1">
         <v>1</v>
       </c>
-      <c r="W3" s="98"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="92"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="91"/>
       <c r="Z3" s="1">
         <v>1</v>
       </c>
-      <c r="AA3" s="97" t="s">
+      <c r="AA3" s="96" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="101"/>
       <c r="B4" s="66"/>
       <c r="C4" s="103"/>
@@ -8576,7 +8589,7 @@
       <c r="F4" s="106">
         <v>94.99</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="7" t="s">
         <v>135</v>
       </c>
@@ -8584,7 +8597,7 @@
       <c r="J4" s="106">
         <v>90.42</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="98"/>
       <c r="L4" s="7" t="s">
         <v>135</v>
       </c>
@@ -8592,7 +8605,7 @@
       <c r="N4" s="106">
         <v>87.15</v>
       </c>
-      <c r="O4" s="86"/>
+      <c r="O4" s="98"/>
       <c r="P4" s="7" t="s">
         <v>135</v>
       </c>
@@ -8600,7 +8613,7 @@
       <c r="R4" s="106">
         <v>85.31</v>
       </c>
-      <c r="S4" s="86"/>
+      <c r="S4" s="98"/>
       <c r="T4" s="7" t="s">
         <v>135</v>
       </c>
@@ -8608,15 +8621,15 @@
       <c r="V4" s="106">
         <v>9.25</v>
       </c>
-      <c r="W4" s="86"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="94"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="93"/>
       <c r="Z4" s="106">
         <v>1.93</v>
       </c>
-      <c r="AA4" s="98"/>
-    </row>
-    <row r="5" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA4" s="97"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -8633,7 +8646,7 @@
         <v>71</v>
       </c>
       <c r="F5" s="107"/>
-      <c r="G5" s="87"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="76">
         <v>1</v>
       </c>
@@ -8641,7 +8654,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="107"/>
-      <c r="K5" s="87"/>
+      <c r="K5" s="99"/>
       <c r="L5" s="76">
         <v>1</v>
       </c>
@@ -8649,7 +8662,7 @@
         <v>71</v>
       </c>
       <c r="N5" s="107"/>
-      <c r="O5" s="87"/>
+      <c r="O5" s="99"/>
       <c r="P5" s="76">
         <v>1</v>
       </c>
@@ -8657,7 +8670,7 @@
         <v>71</v>
       </c>
       <c r="R5" s="107"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="76">
         <v>1</v>
       </c>
@@ -8665,7 +8678,7 @@
         <v>71</v>
       </c>
       <c r="V5" s="107"/>
-      <c r="W5" s="87"/>
+      <c r="W5" s="99"/>
       <c r="X5" s="76">
         <v>1</v>
       </c>
@@ -8673,9 +8686,9 @@
         <v>71</v>
       </c>
       <c r="Z5" s="107"/>
-      <c r="AA5" s="86"/>
-    </row>
-    <row r="6" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA5" s="98"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62">
         <v>2</v>
       </c>
@@ -8744,9 +8757,9 @@
       <c r="Z6" s="57">
         <v>1.03</v>
       </c>
-      <c r="AA6" s="87"/>
-    </row>
-    <row r="7" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA6" s="99"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62">
         <v>3</v>
       </c>
@@ -8817,57 +8830,57 @@
       </c>
       <c r="AA7" s="11"/>
     </row>
-    <row r="8" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="7"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="87">
+      <c r="F8" s="99">
         <v>464697</v>
       </c>
-      <c r="G8" s="87">
+      <c r="G8" s="99">
         <v>488185</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="87">
+      <c r="J8" s="99">
         <v>442085</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="99">
         <v>488185</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="87">
+      <c r="N8" s="99">
         <v>428982</v>
       </c>
-      <c r="O8" s="87">
+      <c r="O8" s="99">
         <v>488185</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="87">
+      <c r="R8" s="99">
         <v>420130</v>
       </c>
-      <c r="S8" s="87">
+      <c r="S8" s="99">
         <v>488185</v>
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="87">
+      <c r="V8" s="99">
         <v>42721</v>
       </c>
-      <c r="W8" s="87">
+      <c r="W8" s="99">
         <v>488185</v>
       </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="87">
+      <c r="Z8" s="99">
         <v>6050</v>
       </c>
-      <c r="AA8" s="87">
+      <c r="AA8" s="99">
         <v>442085</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="25.35" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -8882,50 +8895,50 @@
       <c r="E9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
       <c r="H9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
       <c r="L9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
       <c r="P9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
       <c r="T9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="U9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
       <c r="X9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Y9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-    </row>
-    <row r="10" spans="1:27" ht="38" x14ac:dyDescent="0.5">
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+    </row>
+    <row r="10" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="E10" s="10" t="s">
         <v>72</v>
       </c>
@@ -8954,7 +8967,7 @@
         <v>1.36851510456134E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C12" s="69"/>
     </row>
   </sheetData>
@@ -9024,44 +9037,44 @@
       <selection pane="bottomRight" activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.29296875" customWidth="1"/>
-    <col min="3" max="3" width="10.5859375" customWidth="1"/>
-    <col min="5" max="5" width="11.703125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1" s="89" t="s">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="89" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="89" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="89" t="s">
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="89" t="s">
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
       <c r="X1" s="104" t="s">
         <v>112</v>
       </c>
@@ -9069,49 +9082,49 @@
       <c r="Z1" s="105"/>
       <c r="AA1" s="105"/>
     </row>
-    <row r="2" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="16"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="56"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
       <c r="J2" s="56"/>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
       <c r="N2" s="56"/>
-      <c r="O2" s="97" t="s">
+      <c r="O2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="91"/>
       <c r="R2" s="56"/>
-      <c r="S2" s="97" t="s">
+      <c r="S2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="91"/>
       <c r="V2" s="56"/>
-      <c r="W2" s="97" t="s">
+      <c r="W2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="89" t="s">
+      <c r="X2" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100" t="s">
         <v>140</v>
       </c>
@@ -9119,46 +9132,46 @@
       <c r="C3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="94"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="98"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="94"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="93"/>
       <c r="R3" s="1">
         <v>1</v>
       </c>
-      <c r="S3" s="98"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="94"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="93"/>
       <c r="V3" s="1">
         <v>1</v>
       </c>
-      <c r="W3" s="98"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="92"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="91"/>
       <c r="Z3" s="1">
         <v>1</v>
       </c>
-      <c r="AA3" s="97" t="s">
+      <c r="AA3" s="96" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="101"/>
       <c r="B4" s="66"/>
       <c r="C4" s="103"/>
@@ -9169,7 +9182,7 @@
       <c r="F4" s="106">
         <v>48.21</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="7" t="s">
         <v>140</v>
       </c>
@@ -9177,7 +9190,7 @@
       <c r="J4" s="106">
         <v>29.29</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="98"/>
       <c r="L4" s="7" t="s">
         <v>140</v>
       </c>
@@ -9185,7 +9198,7 @@
       <c r="N4" s="106">
         <v>28.93</v>
       </c>
-      <c r="O4" s="86"/>
+      <c r="O4" s="98"/>
       <c r="P4" s="7" t="s">
         <v>140</v>
       </c>
@@ -9193,7 +9206,7 @@
       <c r="R4" s="106">
         <v>25</v>
       </c>
-      <c r="S4" s="86"/>
+      <c r="S4" s="98"/>
       <c r="T4" s="7" t="s">
         <v>140</v>
       </c>
@@ -9201,15 +9214,15 @@
       <c r="V4" s="106">
         <v>36.43</v>
       </c>
-      <c r="W4" s="86"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="94"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="93"/>
       <c r="Z4" s="106">
         <v>0</v>
       </c>
-      <c r="AA4" s="98"/>
-    </row>
-    <row r="5" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA4" s="97"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62">
         <v>1899</v>
       </c>
@@ -9226,7 +9239,7 @@
         <v>71</v>
       </c>
       <c r="F5" s="107"/>
-      <c r="G5" s="87"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="62">
         <v>1899</v>
       </c>
@@ -9234,7 +9247,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="107"/>
-      <c r="K5" s="87"/>
+      <c r="K5" s="99"/>
       <c r="L5" s="62">
         <v>1899</v>
       </c>
@@ -9242,7 +9255,7 @@
         <v>71</v>
       </c>
       <c r="N5" s="107"/>
-      <c r="O5" s="87"/>
+      <c r="O5" s="99"/>
       <c r="P5" s="62">
         <v>1899</v>
       </c>
@@ -9250,7 +9263,7 @@
         <v>71</v>
       </c>
       <c r="R5" s="107"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="62">
         <v>1899</v>
       </c>
@@ -9258,7 +9271,7 @@
         <v>71</v>
       </c>
       <c r="V5" s="107"/>
-      <c r="W5" s="87"/>
+      <c r="W5" s="99"/>
       <c r="X5" s="62">
         <v>1899</v>
       </c>
@@ -9266,9 +9279,9 @@
         <v>71</v>
       </c>
       <c r="Z5" s="107"/>
-      <c r="AA5" s="86"/>
-    </row>
-    <row r="6" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA5" s="98"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62">
         <v>1900</v>
       </c>
@@ -9337,9 +9350,9 @@
       <c r="Z6" s="57">
         <v>5.71</v>
       </c>
-      <c r="AA6" s="87"/>
-    </row>
-    <row r="7" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA6" s="99"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
         <v>141</v>
       </c>
@@ -9410,7 +9423,7 @@
       </c>
       <c r="AA7" s="11"/>
     </row>
-    <row r="8" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62">
         <v>1906</v>
       </c>
@@ -9481,7 +9494,7 @@
       </c>
       <c r="AA8" s="11"/>
     </row>
-    <row r="9" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="62">
         <v>1907</v>
       </c>
@@ -9552,7 +9565,7 @@
       </c>
       <c r="AA9" s="11"/>
     </row>
-    <row r="10" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="62">
         <v>1908</v>
       </c>
@@ -9623,7 +9636,7 @@
       </c>
       <c r="AA10" s="11"/>
     </row>
-    <row r="11" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="62">
         <v>1909</v>
       </c>
@@ -9694,7 +9707,7 @@
       </c>
       <c r="AA11" s="11"/>
     </row>
-    <row r="12" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="62">
         <v>1910</v>
       </c>
@@ -9765,7 +9778,7 @@
       </c>
       <c r="AA12" s="11"/>
     </row>
-    <row r="13" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="62">
         <v>1911</v>
       </c>
@@ -9836,7 +9849,7 @@
       </c>
       <c r="AA13" s="11"/>
     </row>
-    <row r="14" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="62">
         <v>1912</v>
       </c>
@@ -9907,7 +9920,7 @@
       </c>
       <c r="AA14" s="11"/>
     </row>
-    <row r="15" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="62">
         <v>1913</v>
       </c>
@@ -9978,7 +9991,7 @@
       </c>
       <c r="AA15" s="11"/>
     </row>
-    <row r="16" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="62">
         <v>1914</v>
       </c>
@@ -10049,7 +10062,7 @@
       </c>
       <c r="AA16" s="11"/>
     </row>
-    <row r="17" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
         <v>1915</v>
       </c>
@@ -10120,7 +10133,7 @@
       </c>
       <c r="AA17" s="11"/>
     </row>
-    <row r="18" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="62">
         <v>1916</v>
       </c>
@@ -10191,7 +10204,7 @@
       </c>
       <c r="AA18" s="11"/>
     </row>
-    <row r="19" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62">
         <v>1917</v>
       </c>
@@ -10262,7 +10275,7 @@
       </c>
       <c r="AA19" s="11"/>
     </row>
-    <row r="20" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="62">
         <v>1918</v>
       </c>
@@ -10333,7 +10346,7 @@
       </c>
       <c r="AA20" s="11"/>
     </row>
-    <row r="21" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="62">
         <v>1919</v>
       </c>
@@ -10404,7 +10417,7 @@
       </c>
       <c r="AA21" s="11"/>
     </row>
-    <row r="22" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="62">
         <v>1920</v>
       </c>
@@ -10475,7 +10488,7 @@
       </c>
       <c r="AA22" s="11"/>
     </row>
-    <row r="23" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="62">
         <v>1921</v>
       </c>
@@ -10546,7 +10559,7 @@
       </c>
       <c r="AA23" s="11"/>
     </row>
-    <row r="24" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="62">
         <v>1922</v>
       </c>
@@ -10617,7 +10630,7 @@
       </c>
       <c r="AA24" s="11"/>
     </row>
-    <row r="25" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62">
         <v>1923</v>
       </c>
@@ -10688,7 +10701,7 @@
       </c>
       <c r="AA25" s="11"/>
     </row>
-    <row r="26" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="62">
         <v>1924</v>
       </c>
@@ -10759,7 +10772,7 @@
       </c>
       <c r="AA26" s="11"/>
     </row>
-    <row r="27" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="62">
         <v>1925</v>
       </c>
@@ -10830,7 +10843,7 @@
       </c>
       <c r="AA27" s="11"/>
     </row>
-    <row r="28" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="62">
         <v>1926</v>
       </c>
@@ -10901,7 +10914,7 @@
       </c>
       <c r="AA28" s="11"/>
     </row>
-    <row r="29" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="62">
         <v>1927</v>
       </c>
@@ -10972,7 +10985,7 @@
       </c>
       <c r="AA29" s="11"/>
     </row>
-    <row r="30" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="62">
         <v>1928</v>
       </c>
@@ -11043,7 +11056,7 @@
       </c>
       <c r="AA30" s="11"/>
     </row>
-    <row r="31" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="62">
         <v>1929</v>
       </c>
@@ -11114,7 +11127,7 @@
       </c>
       <c r="AA31" s="11"/>
     </row>
-    <row r="32" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62">
         <v>1930</v>
       </c>
@@ -11185,7 +11198,7 @@
       </c>
       <c r="AA32" s="11"/>
     </row>
-    <row r="33" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="62">
         <v>1931</v>
       </c>
@@ -11256,7 +11269,7 @@
       </c>
       <c r="AA33" s="11"/>
     </row>
-    <row r="34" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="62">
         <v>1932</v>
       </c>
@@ -11327,7 +11340,7 @@
       </c>
       <c r="AA34" s="11"/>
     </row>
-    <row r="35" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="62">
         <v>1933</v>
       </c>
@@ -11398,7 +11411,7 @@
       </c>
       <c r="AA35" s="11"/>
     </row>
-    <row r="36" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="62">
         <v>1934</v>
       </c>
@@ -11469,7 +11482,7 @@
       </c>
       <c r="AA36" s="11"/>
     </row>
-    <row r="37" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="62">
         <v>1935</v>
       </c>
@@ -11540,7 +11553,7 @@
       </c>
       <c r="AA37" s="11"/>
     </row>
-    <row r="38" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="62">
         <v>1936</v>
       </c>
@@ -11611,7 +11624,7 @@
       </c>
       <c r="AA38" s="11"/>
     </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="62">
         <v>1937</v>
       </c>
@@ -11676,7 +11689,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="62">
         <v>1938</v>
       </c>
@@ -11741,7 +11754,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62">
         <v>1939</v>
       </c>
@@ -11806,7 +11819,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="62">
         <v>1940</v>
       </c>
@@ -11871,7 +11884,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="62">
         <v>1941</v>
       </c>
@@ -11936,7 +11949,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="62">
         <v>1942</v>
       </c>
@@ -12001,7 +12014,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="62">
         <v>1943</v>
       </c>
@@ -12066,7 +12079,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="62">
         <v>1944</v>
       </c>
@@ -12131,7 +12144,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="62">
         <v>1945</v>
       </c>
@@ -12196,7 +12209,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="62">
         <v>1946</v>
       </c>
@@ -12261,7 +12274,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="62">
         <v>1947</v>
       </c>
@@ -12326,7 +12339,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="62">
         <v>1948</v>
       </c>
@@ -12391,7 +12404,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="62">
         <v>1949</v>
       </c>
@@ -12456,7 +12469,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="62">
         <v>1950</v>
       </c>
@@ -12521,7 +12534,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62">
         <v>1951</v>
       </c>
@@ -12586,7 +12599,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="62">
         <v>1952</v>
       </c>
@@ -12651,7 +12664,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="62">
         <v>1953</v>
       </c>
@@ -12716,7 +12729,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="62">
         <v>1954</v>
       </c>
@@ -12781,7 +12794,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="62">
         <v>1955</v>
       </c>
@@ -12846,7 +12859,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="62">
         <v>1956</v>
       </c>
@@ -12911,7 +12924,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="62">
         <v>1957</v>
       </c>
@@ -12976,7 +12989,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="62">
         <v>1958</v>
       </c>
@@ -13041,7 +13054,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="62">
         <v>1959</v>
       </c>
@@ -13106,7 +13119,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="62">
         <v>1960</v>
       </c>
@@ -13171,7 +13184,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="62">
         <v>1961</v>
       </c>
@@ -13236,7 +13249,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="62">
         <v>1962</v>
       </c>
@@ -13301,7 +13314,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="62">
         <v>1963</v>
       </c>
@@ -13366,7 +13379,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="62">
         <v>1964</v>
       </c>
@@ -13431,7 +13444,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="62">
         <v>1965</v>
       </c>
@@ -13496,7 +13509,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="62">
         <v>1966</v>
       </c>
@@ -13561,7 +13574,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="62">
         <v>1967</v>
       </c>
@@ -13626,7 +13639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="62">
         <v>1968</v>
       </c>
@@ -13691,7 +13704,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="62">
         <v>1969</v>
       </c>
@@ -13756,7 +13769,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="62">
         <v>1970</v>
       </c>
@@ -13821,7 +13834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="62">
         <v>1971</v>
       </c>
@@ -13886,7 +13899,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="62">
         <v>1972</v>
       </c>
@@ -13951,7 +13964,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="62">
         <v>1973</v>
       </c>
@@ -14016,7 +14029,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="62">
         <v>1974</v>
       </c>
@@ -14081,7 +14094,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="62">
         <v>1975</v>
       </c>
@@ -14146,7 +14159,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="62">
         <v>1976</v>
       </c>
@@ -14211,7 +14224,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="62">
         <v>1977</v>
       </c>
@@ -14276,7 +14289,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="62">
         <v>1978</v>
       </c>
@@ -14341,7 +14354,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="62">
         <v>1979</v>
       </c>
@@ -14406,7 +14419,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="62">
         <v>1980</v>
       </c>
@@ -14471,7 +14484,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="62">
         <v>1981</v>
       </c>
@@ -14536,7 +14549,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="62">
         <v>1982</v>
       </c>
@@ -14601,7 +14614,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="62">
         <v>1983</v>
       </c>
@@ -14666,7 +14679,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="62">
         <v>1984</v>
       </c>
@@ -14731,7 +14744,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="62">
         <v>1985</v>
       </c>
@@ -14796,7 +14809,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="62">
         <v>1986</v>
       </c>
@@ -14861,7 +14874,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="62">
         <v>1987</v>
       </c>
@@ -14926,7 +14939,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="62">
         <v>1988</v>
       </c>
@@ -14991,7 +15004,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="62">
         <v>1989</v>
       </c>
@@ -15056,7 +15069,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="62">
         <v>1990</v>
       </c>
@@ -15121,7 +15134,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="62">
         <v>1991</v>
       </c>
@@ -15186,7 +15199,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="62">
         <v>1992</v>
       </c>
@@ -15251,7 +15264,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="62">
         <v>1993</v>
       </c>
@@ -15316,7 +15329,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="62">
         <v>1994</v>
       </c>
@@ -15381,7 +15394,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="62">
         <v>1995</v>
       </c>
@@ -15446,7 +15459,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="62">
         <v>1996</v>
       </c>
@@ -15511,7 +15524,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="62">
         <v>1997</v>
       </c>
@@ -15576,7 +15589,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="62">
         <v>1998</v>
       </c>
@@ -15641,7 +15654,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="62">
         <v>1999</v>
       </c>
@@ -15706,7 +15719,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="62">
         <v>2000</v>
       </c>
@@ -15771,7 +15784,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="62">
         <v>2001</v>
       </c>
@@ -15836,7 +15849,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="62">
         <v>2002</v>
       </c>
@@ -15901,7 +15914,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="62">
         <v>2003</v>
       </c>
@@ -15966,7 +15979,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="62">
         <v>2004</v>
       </c>
@@ -16031,7 +16044,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="62">
         <v>2005</v>
       </c>
@@ -16096,7 +16109,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="62">
         <v>2006</v>
       </c>
@@ -16161,7 +16174,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="62">
         <v>2007</v>
       </c>
@@ -16226,7 +16239,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="62">
         <v>2008</v>
       </c>
@@ -16291,7 +16304,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="62">
         <v>2009</v>
       </c>
@@ -16356,7 +16369,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="62">
         <v>2010</v>
       </c>
@@ -16421,7 +16434,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="62">
         <v>2011</v>
       </c>
@@ -16486,7 +16499,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="62">
         <v>2012</v>
       </c>
@@ -16551,7 +16564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="62">
         <v>2013</v>
       </c>
@@ -16616,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="62">
         <v>2014</v>
       </c>
@@ -16681,7 +16694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="62" t="s">
         <v>142</v>
       </c>
@@ -16746,7 +16759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="63" t="s">
         <v>143</v>
       </c>
@@ -16811,63 +16824,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E119" s="2"/>
-      <c r="F119" s="87">
+      <c r="F119" s="99">
         <v>464697</v>
       </c>
-      <c r="G119" s="87">
+      <c r="G119" s="99">
         <v>488185</v>
       </c>
-      <c r="J119" s="87">
+      <c r="J119" s="99">
         <v>442085</v>
       </c>
       <c r="K119" s="110">
         <v>488185</v>
       </c>
-      <c r="N119" s="87">
+      <c r="N119" s="99">
         <v>428982</v>
       </c>
       <c r="O119" s="110">
         <v>488185</v>
       </c>
-      <c r="R119" s="87">
+      <c r="R119" s="99">
         <v>420130</v>
       </c>
       <c r="S119" s="110">
         <v>488185</v>
       </c>
-      <c r="V119" s="87">
+      <c r="V119" s="99">
         <v>42721</v>
       </c>
       <c r="W119" s="110">
         <v>488185</v>
       </c>
-      <c r="Z119" s="87">
+      <c r="Z119" s="99">
         <v>6050</v>
       </c>
       <c r="AA119" s="110">
         <v>442085</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E120" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F120" s="87"/>
-      <c r="G120" s="87"/>
-      <c r="J120" s="87"/>
+      <c r="F120" s="99"/>
+      <c r="G120" s="99"/>
+      <c r="J120" s="99"/>
       <c r="K120" s="110"/>
-      <c r="N120" s="87"/>
+      <c r="N120" s="99"/>
       <c r="O120" s="110"/>
-      <c r="R120" s="87"/>
+      <c r="R120" s="99"/>
       <c r="S120" s="110"/>
-      <c r="V120" s="87"/>
+      <c r="V120" s="99"/>
       <c r="W120" s="110"/>
-      <c r="Z120" s="87"/>
+      <c r="Z120" s="99"/>
       <c r="AA120" s="110"/>
     </row>
-    <row r="121" spans="1:27" ht="25.35" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="E121" s="10" t="s">
         <v>72</v>
       </c>
@@ -16964,42 +16977,42 @@
       <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.29296875" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1" s="89" t="s">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="89" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="89" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="89" t="s">
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="89" t="s">
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
       <c r="X1" s="104" t="s">
         <v>112</v>
       </c>
@@ -17007,49 +17020,49 @@
       <c r="Z1" s="105"/>
       <c r="AA1" s="105"/>
     </row>
-    <row r="2" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="16"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="56"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
       <c r="J2" s="56"/>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
       <c r="N2" s="56"/>
-      <c r="O2" s="97" t="s">
+      <c r="O2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="91"/>
       <c r="R2" s="56"/>
-      <c r="S2" s="97" t="s">
+      <c r="S2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="91"/>
       <c r="V2" s="56"/>
-      <c r="W2" s="97" t="s">
+      <c r="W2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="89" t="s">
+      <c r="X2" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100" t="s">
         <v>150</v>
       </c>
@@ -17057,48 +17070,48 @@
       <c r="C3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="94"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="98"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="94"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="93"/>
       <c r="R3" s="1">
         <v>1</v>
       </c>
-      <c r="S3" s="98"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="94"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="93"/>
       <c r="V3" s="1">
         <v>1</v>
       </c>
-      <c r="W3" s="98"/>
-      <c r="X3" s="91" t="s">
+      <c r="W3" s="97"/>
+      <c r="X3" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="Y3" s="92"/>
+      <c r="Y3" s="91"/>
       <c r="Z3" s="1">
         <v>1</v>
       </c>
-      <c r="AA3" s="97" t="s">
+      <c r="AA3" s="96" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="101"/>
       <c r="B4" s="66"/>
       <c r="C4" s="103"/>
@@ -17109,7 +17122,7 @@
       <c r="F4" s="106">
         <v>96.84</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="7" t="s">
         <v>150</v>
       </c>
@@ -17117,7 +17130,7 @@
       <c r="J4" s="106">
         <v>94.35</v>
       </c>
-      <c r="K4" s="86"/>
+      <c r="K4" s="98"/>
       <c r="L4" s="7" t="s">
         <v>150</v>
       </c>
@@ -17125,7 +17138,7 @@
       <c r="N4" s="106">
         <v>90.09</v>
       </c>
-      <c r="O4" s="86"/>
+      <c r="O4" s="98"/>
       <c r="P4" s="7" t="s">
         <v>150</v>
       </c>
@@ -17133,7 +17146,7 @@
       <c r="R4" s="106">
         <v>86.99</v>
       </c>
-      <c r="S4" s="86"/>
+      <c r="S4" s="98"/>
       <c r="T4" s="7" t="s">
         <v>150</v>
       </c>
@@ -17141,15 +17154,15 @@
       <c r="V4" s="108">
         <v>6.09</v>
       </c>
-      <c r="W4" s="86"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="94"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="93"/>
       <c r="Z4" s="106">
         <v>2.27</v>
       </c>
-      <c r="AA4" s="98"/>
-    </row>
-    <row r="5" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA4" s="97"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="76">
         <v>1</v>
       </c>
@@ -17166,7 +17179,7 @@
         <v>71</v>
       </c>
       <c r="F5" s="107"/>
-      <c r="G5" s="87"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="76">
         <v>1</v>
       </c>
@@ -17174,7 +17187,7 @@
         <v>71</v>
       </c>
       <c r="J5" s="107"/>
-      <c r="K5" s="87"/>
+      <c r="K5" s="99"/>
       <c r="L5" s="76">
         <v>1</v>
       </c>
@@ -17182,7 +17195,7 @@
         <v>71</v>
       </c>
       <c r="N5" s="107"/>
-      <c r="O5" s="87"/>
+      <c r="O5" s="99"/>
       <c r="P5" s="76">
         <v>1</v>
       </c>
@@ -17190,7 +17203,7 @@
         <v>71</v>
       </c>
       <c r="R5" s="107"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="76">
         <v>1</v>
       </c>
@@ -17198,7 +17211,7 @@
         <v>71</v>
       </c>
       <c r="V5" s="109"/>
-      <c r="W5" s="87"/>
+      <c r="W5" s="99"/>
       <c r="X5" s="76">
         <v>1</v>
       </c>
@@ -17206,9 +17219,9 @@
         <v>71</v>
       </c>
       <c r="Z5" s="107"/>
-      <c r="AA5" s="86"/>
-    </row>
-    <row r="6" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA5" s="98"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="76">
         <v>2</v>
       </c>
@@ -17275,9 +17288,9 @@
       <c r="Z6" s="57">
         <v>1.6</v>
       </c>
-      <c r="AA6" s="87"/>
-    </row>
-    <row r="7" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA6" s="99"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="76">
         <v>3</v>
       </c>
@@ -17346,7 +17359,7 @@
       </c>
       <c r="AA7" s="11"/>
     </row>
-    <row r="8" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="76">
         <v>4</v>
       </c>
@@ -17415,7 +17428,7 @@
       </c>
       <c r="AA8" s="11"/>
     </row>
-    <row r="9" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="76">
         <v>5</v>
       </c>
@@ -17484,7 +17497,7 @@
       </c>
       <c r="AA9" s="11"/>
     </row>
-    <row r="10" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="76">
         <v>6</v>
       </c>
@@ -17553,7 +17566,7 @@
       </c>
       <c r="AA10" s="11"/>
     </row>
-    <row r="11" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="76">
         <v>7</v>
       </c>
@@ -17622,7 +17635,7 @@
       </c>
       <c r="AA11" s="11"/>
     </row>
-    <row r="12" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="76">
         <v>8</v>
       </c>
@@ -17691,7 +17704,7 @@
       </c>
       <c r="AA12" s="11"/>
     </row>
-    <row r="13" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="76">
         <v>9</v>
       </c>
@@ -17760,7 +17773,7 @@
       </c>
       <c r="AA13" s="11"/>
     </row>
-    <row r="14" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76">
         <v>10</v>
       </c>
@@ -17831,7 +17844,7 @@
       </c>
       <c r="AA14" s="11"/>
     </row>
-    <row r="15" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="80">
         <v>99</v>
       </c>
@@ -17902,7 +17915,7 @@
       </c>
       <c r="AA15" s="11"/>
     </row>
-    <row r="16" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="62"/>
       <c r="B16" s="59"/>
       <c r="C16" s="60"/>
@@ -17931,57 +17944,57 @@
       <c r="Z16" s="57"/>
       <c r="AA16" s="11"/>
     </row>
-    <row r="17" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="7"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="87">
+      <c r="F17" s="99">
         <v>464697</v>
       </c>
-      <c r="G17" s="87">
+      <c r="G17" s="99">
         <v>488185</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="87">
+      <c r="J17" s="99">
         <v>442085</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="99">
         <v>488185</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="87">
+      <c r="N17" s="99">
         <v>428982</v>
       </c>
-      <c r="O17" s="87">
+      <c r="O17" s="99">
         <v>488185</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="87">
+      <c r="R17" s="99">
         <v>420130</v>
       </c>
-      <c r="S17" s="87">
+      <c r="S17" s="99">
         <v>488185</v>
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="87">
+      <c r="V17" s="99">
         <v>42721</v>
       </c>
-      <c r="W17" s="87">
+      <c r="W17" s="99">
         <v>488185</v>
       </c>
       <c r="X17" s="7"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="87">
+      <c r="Z17" s="99">
         <v>6050</v>
       </c>
-      <c r="AA17" s="87">
+      <c r="AA17" s="99">
         <v>442085</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="25.35" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
@@ -17996,50 +18009,50 @@
       <c r="E18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
       <c r="L18" s="9" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
       <c r="P18" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
       <c r="T18" s="9" t="s">
         <v>2</v>
       </c>
       <c r="U18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
       <c r="X18" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Y18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-    </row>
-    <row r="19" spans="1:27" ht="38" x14ac:dyDescent="0.5">
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="99"/>
+    </row>
+    <row r="19" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="E19" s="10" t="s">
         <v>72</v>
       </c>
